--- a/EDA.xlsx
+++ b/EDA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Henry\PI_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF35DBE-89BA-4D08-99F2-4DA3B9BCF2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A70A524-A470-4D8F-B515-8EBDE5BFD3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7974CD50-C0F4-456B-A227-5BB8B88E0EC5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Sin geocodificación</t>
   </si>
@@ -75,6 +75,24 @@
   </si>
   <si>
     <t>LC-2020-0244615</t>
+  </si>
+  <si>
+    <t>Lesiones</t>
+  </si>
+  <si>
+    <t>Homicidios</t>
+  </si>
+  <si>
+    <t>Se eliminan los hechos 2016-0174 y 2016-0151 que no proporcionan información sustancial para las estadísticas</t>
+  </si>
+  <si>
+    <t>No tiene información de hora</t>
+  </si>
+  <si>
+    <t>Sin información víctimas</t>
+  </si>
+  <si>
+    <t>No tiene las coordenadas pero se conservan puesto que tienen la información de la comuna</t>
   </si>
 </sst>
 </file>
@@ -106,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -129,11 +147,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -142,7 +186,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -479,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A3C486-22E5-4E53-BD33-E42F6475E0E7}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,93 +556,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F3" s="1">
         <v>-3472890716</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>10815</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1">
-        <v>-5829963273</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="9">
+        <v>10815</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-5829963273</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>1288</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>11045</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>3327</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>1213</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D1:G1"/>
+  <mergeCells count="4">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/EDA.xlsx
+++ b/EDA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Henry\PI_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A70A524-A470-4D8F-B515-8EBDE5BFD3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C071A75C-FF88-408F-966B-9FEEFB86B854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7974CD50-C0F4-456B-A227-5BB8B88E0EC5}"/>
   </bookViews>
@@ -187,21 +187,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A3C486-22E5-4E53-BD33-E42F6475E0E7}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,10 +556,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -568,21 +568,21 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="5">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -596,13 +596,13 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="5">
         <v>10815</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
@@ -614,7 +614,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="5">
         <v>1288</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -622,7 +622,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="5">
         <v>11045</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -630,7 +630,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="5">
         <v>3327</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -638,7 +638,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="5">
         <v>1213</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -646,10 +646,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -663,7 +663,7 @@
       <c r="A12" s="3">
         <v>1</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -687,7 +687,7 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -699,5 +699,6 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>